--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19441f1c387bff32/Pulpit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19441f1c387bff32/Pulpit/travels/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_AD4DADEC636C813AC809E4EEB0D945B25BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B512F42-D635-4228-949D-DFE69FBB17FA}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_AD4DADEC636C813AC809E4EEB0D945B25BDEDD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A906E52-DA4D-4DEE-8624-B57445C120D4}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="1515" windowWidth="21600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="1320" windowWidth="21600" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>city</t>
   </si>
@@ -36,10 +36,13 @@
     <t>Dubai</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>London</t>
+  </si>
+  <si>
+    <t>Jumeirah Beach Hotel</t>
+  </si>
+  <si>
+    <t>Grand Plaza Apartments</t>
   </si>
 </sst>
 </file>
@@ -92,6 +95,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,7 +367,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,15 +385,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
